--- a/neutrons/Convolution/1.xlsx
+++ b/neutrons/Convolution/1.xlsx
@@ -352,16 +352,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F635"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1">
         <v>0</v>
@@ -369,10 +371,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.1</v>
+        <v>-4.8</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0.66</v>
@@ -384,10 +386,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.2</v>
+        <v>-4.7</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1.26</v>
@@ -399,10 +401,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.3</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1.86</v>
@@ -414,10 +416,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.4</v>
+        <v>-4.5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>2.46</v>
@@ -429,10 +431,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.5</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>3.06</v>
@@ -444,10 +446,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.6</v>
+        <v>-4.3</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>3.66</v>
@@ -459,10 +461,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.7</v>
+        <v>-4.2</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>4.26</v>
@@ -474,10 +476,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.8</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>4.8600000000000003</v>
@@ -489,10 +491,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.9</v>
+        <v>-4</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>5.46</v>
@@ -504,10 +506,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>-3.9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>6.06</v>
@@ -519,10 +521,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1.1000000000000001</v>
+        <v>-3.8</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>6.66</v>
@@ -534,10 +536,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1.2</v>
+        <v>-3.7</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>7.26</v>
@@ -549,10 +551,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1.3</v>
+        <v>-3.6</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>7.86</v>
@@ -564,10 +566,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1.4</v>
+        <v>-3.5</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>8.4600000000000009</v>
@@ -579,10 +581,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1.5</v>
+        <v>-3.4</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>9.06</v>
@@ -594,10 +596,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1.6</v>
+        <v>-3.3</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>9.66</v>
@@ -609,10 +611,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1.7</v>
+        <v>-3.2</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>10.26</v>
@@ -624,10 +626,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1.8</v>
+        <v>-3.1</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>10.86</v>
@@ -639,10 +641,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1.9</v>
+        <v>-3</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>11.46</v>
@@ -654,10 +656,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2</v>
+        <v>-2.9</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>12.06</v>
@@ -669,10 +671,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2.1</v>
+        <v>-2.8</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>12.66</v>
@@ -684,10 +686,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2.2000000000000002</v>
+        <v>-2.7</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>13.26</v>
@@ -699,10 +701,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2.2999999999999998</v>
+        <v>-2.6</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>13.86</v>
@@ -714,10 +716,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2.4</v>
+        <v>-2.5</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>14.46</v>
@@ -729,10 +731,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2.5</v>
+        <v>-2.4</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>15.06</v>
@@ -744,10 +746,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2.6</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>15.66</v>
@@ -759,10 +761,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2.7</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>16.260000000000002</v>
@@ -774,10 +776,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2.8</v>
+        <v>-2.1</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>16.86</v>
@@ -789,10 +791,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2.9</v>
+        <v>-2</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>17.46</v>
@@ -804,10 +806,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>3</v>
+        <v>-1.9</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>18.059999999999999</v>
@@ -819,10 +821,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>3.1</v>
+        <v>-1.8</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>18.66</v>
@@ -834,10 +836,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>3.2</v>
+        <v>-1.7</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>19.260000000000002</v>
@@ -849,10 +851,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>3.3</v>
+        <v>-1.6</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>19.86</v>
@@ -864,10 +866,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>3.4</v>
+        <v>-1.5</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>20.46</v>
@@ -879,10 +881,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>3.5</v>
+        <v>-1.4</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>21.06</v>
@@ -894,10 +896,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>3.6</v>
+        <v>-1.3</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>21.66</v>
@@ -909,10 +911,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>3.7</v>
+        <v>-1.2</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>22.26</v>
@@ -924,10 +926,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>3.8</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>22.86</v>
@@ -939,10 +941,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>3.9</v>
+        <v>-1</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>23.46</v>
@@ -954,10 +956,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>4</v>
+        <v>-0.9</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>24.06</v>
@@ -969,10 +971,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>4.0999999999999996</v>
+        <v>-0.8</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>24.66</v>
@@ -984,10 +986,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>4.2</v>
+        <v>-0.7</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>25.26</v>
@@ -999,10 +1001,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>4.3</v>
+        <v>-0.6</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>25.86</v>
@@ -1014,10 +1016,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>4.4000000000000004</v>
+        <v>-0.5</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>26.46</v>
@@ -1029,10 +1031,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>4.5</v>
+        <v>-0.4</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>27.06</v>
@@ -1044,10 +1046,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>4.5999999999999996</v>
+        <v>-0.3</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>27.66</v>
@@ -1059,10 +1061,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>4.7</v>
+        <v>-0.2</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>28.26</v>
@@ -1074,10 +1076,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>4.8</v>
+        <v>-0.1</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>28.86</v>
@@ -1089,7 +1091,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1104,7 +1106,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1119,7 +1121,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>5.0999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1134,7 +1136,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>5.2</v>
+        <v>0.3</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1149,7 +1151,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>5.3</v>
+        <v>0.4</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1164,7 +1166,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>5.4</v>
+        <v>0.5</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1179,7 +1181,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>5.5</v>
+        <v>0.6</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1194,7 +1196,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1209,7 +1211,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>5.7</v>
+        <v>0.8</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1224,7 +1226,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1239,7 +1241,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>5.9</v>
+        <v>1</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1254,7 +1256,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1269,7 +1271,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>6.1</v>
+        <v>1.2</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1284,7 +1286,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>6.2</v>
+        <v>1.3</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1299,7 +1301,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>6.3</v>
+        <v>1.4</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1314,7 +1316,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>6.4</v>
+        <v>1.5</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1329,7 +1331,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1344,7 +1346,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>6.6</v>
+        <v>1.7</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1359,7 +1361,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>6.7</v>
+        <v>1.8</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1374,7 +1376,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>6.8</v>
+        <v>1.9</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -1389,7 +1391,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>6.9</v>
+        <v>2</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -1404,7 +1406,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -1419,7 +1421,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>7.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -1434,7 +1436,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>7.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -1449,7 +1451,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>7.3</v>
+        <v>2.4</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1464,7 +1466,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>7.4</v>
+        <v>2.5</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -1479,7 +1481,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -1494,7 +1496,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>7.6</v>
+        <v>2.7</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -1509,7 +1511,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>7.7</v>
+        <v>2.8</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -1524,7 +1526,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>7.8</v>
+        <v>2.9</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -1539,7 +1541,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>7.9</v>
+        <v>3</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -1554,7 +1556,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -1569,7 +1571,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>8.1</v>
+        <v>3.2</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -1584,7 +1586,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>8.1999999999999993</v>
+        <v>3.3</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -1599,7 +1601,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>8.3000000000000007</v>
+        <v>3.4</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -1614,7 +1616,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>8.4</v>
+        <v>3.5</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -1629,7 +1631,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -1644,7 +1646,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>8.6</v>
+        <v>3.7</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -1659,7 +1661,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>8.6999999999999993</v>
+        <v>3.8</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -1674,7 +1676,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>8.8000000000000007</v>
+        <v>3.9</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -1689,7 +1691,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>8.9</v>
+        <v>4</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -1704,7 +1706,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -1719,7 +1721,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>9.1</v>
+        <v>4.2</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -1734,7 +1736,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>9.1999999999999993</v>
+        <v>4.3</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -1749,7 +1751,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>9.3000000000000007</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -1764,7 +1766,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>9.4</v>
+        <v>4.5</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -1779,7 +1781,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>9.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -1794,7 +1796,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>9.6</v>
+        <v>4.7</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -1809,7 +1811,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>9.6999999999999993</v>
+        <v>4.8</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -1824,7 +1826,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>9.8000000000000007</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -1839,7 +1841,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>9.9</v>
+        <v>5</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -1854,7 +1856,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>10</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -1868,6 +1870,12 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>5.2</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
       <c r="E102">
         <v>60.66</v>
       </c>
@@ -1877,6 +1885,12 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>5.3</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
       <c r="E103">
         <v>61.26</v>
       </c>
@@ -1886,6 +1900,12 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>5.4</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
       <c r="E104">
         <v>61.86</v>
       </c>
@@ -1895,6 +1915,12 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>5.5</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
       <c r="E105">
         <v>62.46</v>
       </c>
@@ -1904,6 +1930,12 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>5.6</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
       <c r="E106">
         <v>63.06</v>
       </c>
@@ -1913,6 +1945,12 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>5.7</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
       <c r="E107">
         <v>63.66</v>
       </c>
@@ -1922,6 +1960,12 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>5.8</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
       <c r="E108">
         <v>64.260000000000005</v>
       </c>
@@ -1931,6 +1975,12 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>5.9</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
       <c r="E109">
         <v>64.86</v>
       </c>
@@ -1940,6 +1990,12 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>6</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
       <c r="E110">
         <v>65.459999999999994</v>
       </c>
@@ -1949,6 +2005,12 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>6.1</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
       <c r="E111">
         <v>66.06</v>
       </c>
@@ -1958,6 +2020,12 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>6.2</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
       <c r="E112">
         <v>66.66</v>
       </c>
@@ -1966,7 +2034,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>6.3</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
       <c r="E113">
         <v>67.260000000000005</v>
       </c>
@@ -1975,7 +2049,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>6.4</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
       <c r="E114">
         <v>67.86</v>
       </c>
@@ -1984,7 +2064,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>6.5</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
       <c r="E115">
         <v>68.459999999999994</v>
       </c>
@@ -1993,7 +2079,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>6.6</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
       <c r="E116">
         <v>69.06</v>
       </c>
@@ -2002,7 +2094,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>6.7</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
       <c r="E117">
         <v>69.66</v>
       </c>
@@ -2011,7 +2109,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>6.8</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
       <c r="E118">
         <v>70.260000000000005</v>
       </c>
@@ -2020,7 +2124,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>6.9</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
       <c r="E119">
         <v>70.86</v>
       </c>
@@ -2029,7 +2139,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>7</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
       <c r="E120">
         <v>71.459999999999994</v>
       </c>
@@ -2038,7 +2154,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>7.1</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
       <c r="E121">
         <v>72.06</v>
       </c>
@@ -2047,7 +2169,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>7.2</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
       <c r="E122">
         <v>72.66</v>
       </c>
@@ -2056,7 +2184,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>7.3</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
       <c r="E123">
         <v>73.260000000000005</v>
       </c>
@@ -2065,7 +2199,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>7.4</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
       <c r="E124">
         <v>73.86</v>
       </c>
@@ -2074,7 +2214,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>7.5</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
       <c r="E125">
         <v>74.459999999999994</v>
       </c>
@@ -2083,7 +2229,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>7.6</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
       <c r="E126">
         <v>75.06</v>
       </c>
@@ -2092,7 +2244,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>7.7</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
       <c r="E127">
         <v>75.66</v>
       </c>
@@ -2101,7 +2259,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="128" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>7.8</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
       <c r="E128">
         <v>76.260000000000005</v>
       </c>
@@ -2110,7 +2274,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>7.9</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
       <c r="E129">
         <v>76.86</v>
       </c>
@@ -2119,7 +2289,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>8</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
       <c r="E130">
         <v>77.459999999999994</v>
       </c>
@@ -2128,7 +2304,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="131" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>8.1</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
       <c r="E131">
         <v>78.06</v>
       </c>
@@ -2137,7 +2319,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="132" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
       <c r="E132">
         <v>78.66</v>
       </c>
@@ -2146,7 +2334,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="133" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
       <c r="E133">
         <v>79.260000000000005</v>
       </c>
@@ -2155,7 +2349,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="134" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>8.4</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
       <c r="E134">
         <v>79.86</v>
       </c>
@@ -2164,7 +2364,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="135" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>8.5</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
       <c r="E135">
         <v>80.459999999999994</v>
       </c>
@@ -2173,7 +2379,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="136" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>8.6</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
       <c r="E136">
         <v>81.06</v>
       </c>
@@ -2182,7 +2394,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="137" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
       <c r="E137">
         <v>81.66</v>
       </c>
@@ -2191,7 +2409,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="138" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
       <c r="E138">
         <v>82.26</v>
       </c>
@@ -2200,7 +2424,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="139" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>8.9</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
       <c r="E139">
         <v>82.86</v>
       </c>
@@ -2209,7 +2439,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="140" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>9</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
       <c r="E140">
         <v>83.46</v>
       </c>
@@ -2218,7 +2454,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="141" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>9.1</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
       <c r="E141">
         <v>84.06</v>
       </c>
@@ -2227,7 +2469,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="142" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
       <c r="E142">
         <v>84.66</v>
       </c>
@@ -2236,7 +2484,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="143" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
       <c r="E143">
         <v>85.26</v>
       </c>
@@ -2245,7 +2499,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="144" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>9.4</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
       <c r="E144">
         <v>85.86</v>
       </c>
@@ -2254,7 +2514,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="145" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>9.5</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
       <c r="E145">
         <v>86.46</v>
       </c>
@@ -2263,7 +2529,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="146" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>9.6</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
       <c r="E146">
         <v>87.06</v>
       </c>
@@ -2272,7 +2544,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="147" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
       <c r="E147">
         <v>87.66</v>
       </c>
@@ -2281,7 +2559,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="148" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
       <c r="E148">
         <v>88.26</v>
       </c>
@@ -2290,7 +2574,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="149" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>9.9</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
       <c r="E149">
         <v>88.86</v>
       </c>
@@ -2299,7 +2589,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="150" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>10</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
       <c r="E150">
         <v>89.46</v>
       </c>
@@ -2308,7 +2604,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="151" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>10.1</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
       <c r="E151">
         <v>90.06</v>
       </c>
@@ -2317,7 +2619,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="152" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
       <c r="E152">
         <v>90.66</v>
       </c>
@@ -2326,7 +2634,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="153" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>10.3</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
       <c r="E153">
         <v>91.26</v>
       </c>
@@ -2335,7 +2649,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="154" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>10.4</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
       <c r="E154">
         <v>91.86</v>
       </c>
@@ -2344,7 +2664,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="155" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>10.5</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
       <c r="E155">
         <v>92.46</v>
       </c>
@@ -2353,7 +2679,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="156" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>10.6</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
       <c r="E156">
         <v>93.06</v>
       </c>
@@ -2362,7 +2694,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="157" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>10.7</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
       <c r="E157">
         <v>93.66</v>
       </c>
@@ -2371,7 +2709,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="158" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>10.8</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
       <c r="E158">
         <v>94.26</v>
       </c>
@@ -2380,7 +2724,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="159" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>10.9</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
       <c r="E159">
         <v>94.86</v>
       </c>
@@ -2389,7 +2739,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="160" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>11</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
       <c r="E160">
         <v>95.46</v>
       </c>
@@ -2398,7 +2754,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="161" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>11.1</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
       <c r="E161">
         <v>96.06</v>
       </c>
@@ -2407,7 +2769,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="162" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>11.2</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
       <c r="E162">
         <v>96.66</v>
       </c>
@@ -2416,7 +2784,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="163" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>11.3</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
       <c r="E163">
         <v>97.26</v>
       </c>
@@ -2425,7 +2799,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="164" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>11.4</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
       <c r="E164">
         <v>97.86</v>
       </c>
@@ -2434,7 +2814,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="165" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>11.5</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
       <c r="E165">
         <v>98.46</v>
       </c>
@@ -2443,7 +2829,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="166" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>11.6</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
       <c r="E166">
         <v>99.06</v>
       </c>
@@ -2452,7 +2844,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="167" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>11.7</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
       <c r="E167">
         <v>99.66</v>
       </c>
@@ -2461,7 +2859,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="168" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>11.8</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
       <c r="E168">
         <v>100.26</v>
       </c>
@@ -2470,7 +2874,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="169" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>11.9</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
       <c r="E169">
         <v>100.86</v>
       </c>
@@ -2479,7 +2889,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="170" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>12</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
       <c r="E170">
         <v>101.46</v>
       </c>
@@ -2488,7 +2904,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="171" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>12.1</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
       <c r="E171">
         <v>102.06</v>
       </c>
@@ -2497,7 +2919,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="172" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>12.2</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
       <c r="E172">
         <v>102.66</v>
       </c>
@@ -2506,7 +2934,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="173" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>12.3</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
       <c r="E173">
         <v>103.26</v>
       </c>
@@ -2515,7 +2949,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="174" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>12.4</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
       <c r="E174">
         <v>103.86</v>
       </c>
@@ -2524,7 +2964,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="175" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>12.5</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
       <c r="E175">
         <v>104.46</v>
       </c>
@@ -2533,7 +2979,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="176" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>12.6</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
       <c r="E176">
         <v>105.06</v>
       </c>
@@ -2542,7 +2994,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="177" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>12.7</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
       <c r="E177">
         <v>105.66</v>
       </c>
@@ -2551,7 +3009,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="178" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>12.8</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
       <c r="E178">
         <v>106.26</v>
       </c>
@@ -2560,7 +3024,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="179" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>12.9</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
       <c r="E179">
         <v>106.86</v>
       </c>
@@ -2569,7 +3039,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="180" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>13</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
       <c r="E180">
         <v>107.46</v>
       </c>
@@ -2578,7 +3054,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="181" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>13.1</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
       <c r="E181">
         <v>108.06</v>
       </c>
@@ -2587,7 +3069,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="182" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>13.2</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
       <c r="E182">
         <v>108.66</v>
       </c>
@@ -2596,7 +3084,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="183" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>13.3</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
       <c r="E183">
         <v>109.26</v>
       </c>
@@ -2605,7 +3099,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="184" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>13.4</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
       <c r="E184">
         <v>109.86</v>
       </c>
@@ -2614,7 +3114,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="185" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>13.5</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
       <c r="E185">
         <v>110.46</v>
       </c>
@@ -2623,7 +3129,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="186" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>13.6</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
       <c r="E186">
         <v>111.06</v>
       </c>
@@ -2632,7 +3144,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="187" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>13.7</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
       <c r="E187">
         <v>111.66</v>
       </c>
@@ -2641,7 +3159,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="188" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>13.8</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
       <c r="E188">
         <v>112.26</v>
       </c>
@@ -2650,7 +3174,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="189" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>13.9</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
       <c r="E189">
         <v>112.86</v>
       </c>
@@ -2659,7 +3189,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="190" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>14</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
       <c r="E190">
         <v>113.46</v>
       </c>
@@ -2668,7 +3204,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="191" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>14.1</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
       <c r="E191">
         <v>114.06</v>
       </c>
@@ -2677,7 +3219,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="192" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>14.2</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
       <c r="E192">
         <v>114.66</v>
       </c>
@@ -2686,7 +3234,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="193" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>14.3</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
       <c r="E193">
         <v>115.26</v>
       </c>
@@ -2695,7 +3249,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="194" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>14.4</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
       <c r="E194">
         <v>115.86</v>
       </c>
@@ -2704,7 +3264,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="195" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>14.5</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
       <c r="E195">
         <v>116.46</v>
       </c>
@@ -2713,7 +3279,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="196" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>14.6</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
       <c r="E196">
         <v>117.06</v>
       </c>
@@ -2722,7 +3294,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="197" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>14.7</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
       <c r="E197">
         <v>117.66</v>
       </c>
@@ -2731,7 +3309,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="198" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>14.8</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
       <c r="E198">
         <v>118.26</v>
       </c>
@@ -2740,7 +3324,13 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="199" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>14.9</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
       <c r="E199">
         <v>118.86</v>
       </c>
@@ -2749,7 +3339,13 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="200" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>15</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
       <c r="E200">
         <v>119.46</v>
       </c>
@@ -2758,7 +3354,7 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="201" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E201">
         <v>120.06</v>
       </c>
@@ -2767,7 +3363,7 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="202" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E202">
         <v>120.66</v>
       </c>
@@ -2776,7 +3372,7 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="203" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E203">
         <v>121.26</v>
       </c>
@@ -2785,7 +3381,7 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="204" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E204">
         <v>121.86</v>
       </c>
@@ -2794,7 +3390,7 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="205" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E205">
         <v>122.46</v>
       </c>
@@ -2803,7 +3399,7 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="206" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E206">
         <v>123.06</v>
       </c>
@@ -2812,7 +3408,7 @@
         <v>0.60000000000000853</v>
       </c>
     </row>
-    <row r="207" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E207">
         <v>123.66</v>
       </c>
@@ -2821,7 +3417,7 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="208" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E208">
         <v>124.26</v>
       </c>
